--- a/biology/Médecine/Leila_Ameddah/Leila_Ameddah.xlsx
+++ b/biology/Médecine/Leila_Ameddah/Leila_Ameddah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leila Ameddah, née le 21 avril 1962 à Batna, Algérie, est une artiste-peintre algérienne[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leila Ameddah, née le 21 avril 1962 à Batna, Algérie, est une artiste-peintre algérienne.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leila Ameddah[4],[5],[3] artiste plasticienne  autodidacte[6],[7]. Elle est chirurgienne dentiste de profession, vit et travaille à Batna.
-Elle a participé à plusieurs expositions nationales et internationales, dès 1984 jusqu'à nos jours[8].
-Leila Ameddah a été influencée par tout ce qui est traditionnel, aurassien, berbère et par son métier de l'art dentaire[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leila Ameddah artiste plasticienne  autodidacte,. Elle est chirurgienne dentiste de profession, vit et travaille à Batna.
+Elle a participé à plusieurs expositions nationales et internationales, dès 1984 jusqu'à nos jours.
+Leila Ameddah a été influencée par tout ce qui est traditionnel, aurassien, berbère et par son métier de l'art dentaire.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,9 +586,11 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières expositions[10] ont eu lieu durant ses années d’études (1983 _- 1989) puis les manifestations artistiques nationales et internationales se sont enchaînées suivant l’ordre chronologique suivant :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières expositions ont eu lieu durant ses années d’études (1983 _- 1989) puis les manifestations artistiques nationales et internationales se sont enchaînées suivant l’ordre chronologique suivant :
 Expositions nationales de Leila Ameddah 
 1984 - Exposition individuelle à l’université de Batna.
 1986 - Exposition individuelle à l’université de Constantine
